--- a/artfynd/A 20384-2023.xlsx
+++ b/artfynd/A 20384-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>865900</v>
+        <v>1955211</v>
       </c>
       <c r="B2" t="n">
-        <v>78569</v>
+        <v>78568</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -725,14 +725,14 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>SV Monte Carlo, Jmt</t>
+          <t>Söder om Bodtjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>527721.6135952856</v>
+        <v>526984.7824697205</v>
       </c>
       <c r="R2" t="n">
-        <v>6996047.266259992</v>
+        <v>6996343.169846137</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -786,12 +786,17 @@
       <c r="AG2" t="b">
         <v>0</v>
       </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>grannaturskog</t>
+        </is>
+      </c>
       <c r="AN2" t="n">
         <v>1</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>1 substratenheter # sälgbark</t>
+          <t>1 substratenheter # gammal björk</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -809,7 +814,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1955206</v>
+        <v>1955210</v>
       </c>
       <c r="B3" t="n">
         <v>78568</v>
@@ -854,14 +859,14 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>SV Monte Carlo, Jmt</t>
+          <t>Söder om Bodtjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>527646.3222403944</v>
+        <v>527394.2661032595</v>
       </c>
       <c r="R3" t="n">
-        <v>6996046.623740066</v>
+        <v>6996083.440633372</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -915,12 +920,17 @@
       <c r="AG3" t="b">
         <v>0</v>
       </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>grannaturskog</t>
+        </is>
+      </c>
       <c r="AN3" t="n">
         <v>1</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1 substratenheter # björkbark</t>
+          <t>1 substratenheter # björk med brandljud</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -938,10 +948,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1955211</v>
+        <v>865900</v>
       </c>
       <c r="B4" t="n">
-        <v>78568</v>
+        <v>78569</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -954,21 +964,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -983,14 +993,14 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Söder om Bodtjärnen, Jmt</t>
+          <t>SV Monte Carlo, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>526984.7824697205</v>
+        <v>527721.6135952856</v>
       </c>
       <c r="R4" t="n">
-        <v>6996343.169846137</v>
+        <v>6996047.266259992</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1044,17 +1054,12 @@
       <c r="AG4" t="b">
         <v>0</v>
       </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>grannaturskog</t>
-        </is>
-      </c>
       <c r="AN4" t="n">
         <v>1</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1 substratenheter # gammal björk</t>
+          <t>1 substratenheter # sälgbark</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1072,7 +1077,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1955208</v>
+        <v>1955206</v>
       </c>
       <c r="B5" t="n">
         <v>78568</v>
@@ -1121,10 +1126,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>527721.6135952856</v>
+        <v>527646.3222403944</v>
       </c>
       <c r="R5" t="n">
-        <v>6996047.266259992</v>
+        <v>6996046.623740066</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1183,7 +1188,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1 substratenheter</t>
+          <t>1 substratenheter # björkbark</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1201,7 +1206,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1955205</v>
+        <v>1955208</v>
       </c>
       <c r="B6" t="n">
         <v>78568</v>
@@ -1246,14 +1251,14 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>S Monte Carlo, Jmt</t>
+          <t>SV Monte Carlo, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>527801.0263964261</v>
+        <v>527721.6135952856</v>
       </c>
       <c r="R6" t="n">
-        <v>6995990.418098574</v>
+        <v>6996047.266259992</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1312,7 +1317,7 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1 substratenheter # aspbark</t>
+          <t>1 substratenheter</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1330,7 +1335,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1955210</v>
+        <v>1955205</v>
       </c>
       <c r="B7" t="n">
         <v>78568</v>
@@ -1375,14 +1380,14 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Söder om Bodtjärnen, Jmt</t>
+          <t>S Monte Carlo, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>527394.2661032595</v>
+        <v>527801.0263964261</v>
       </c>
       <c r="R7" t="n">
-        <v>6996083.440633372</v>
+        <v>6995990.418098574</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1436,17 +1441,12 @@
       <c r="AG7" t="b">
         <v>0</v>
       </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>grannaturskog</t>
-        </is>
-      </c>
       <c r="AN7" t="n">
         <v>1</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1 substratenheter # björk med brandljud</t>
+          <t>1 substratenheter # aspbark</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>

--- a/artfynd/A 20384-2023.xlsx
+++ b/artfynd/A 20384-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1955211</v>
+        <v>865900</v>
       </c>
       <c r="B2" t="n">
-        <v>78568</v>
+        <v>78569</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -725,14 +725,14 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Söder om Bodtjärnen, Jmt</t>
+          <t>SV Monte Carlo, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>526984.7824697205</v>
+        <v>527721.6135952856</v>
       </c>
       <c r="R2" t="n">
-        <v>6996343.169846137</v>
+        <v>6996047.266259992</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -786,17 +786,12 @@
       <c r="AG2" t="b">
         <v>0</v>
       </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>grannaturskog</t>
-        </is>
-      </c>
       <c r="AN2" t="n">
         <v>1</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>1 substratenheter # gammal björk</t>
+          <t>1 substratenheter # sälgbark</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -814,7 +809,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1955210</v>
+        <v>1955206</v>
       </c>
       <c r="B3" t="n">
         <v>78568</v>
@@ -859,14 +854,14 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Söder om Bodtjärnen, Jmt</t>
+          <t>SV Monte Carlo, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>527394.2661032595</v>
+        <v>527646.3222403944</v>
       </c>
       <c r="R3" t="n">
-        <v>6996083.440633372</v>
+        <v>6996046.623740066</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -920,17 +915,12 @@
       <c r="AG3" t="b">
         <v>0</v>
       </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>grannaturskog</t>
-        </is>
-      </c>
       <c r="AN3" t="n">
         <v>1</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1 substratenheter # björk med brandljud</t>
+          <t>1 substratenheter # björkbark</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -948,10 +938,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>865900</v>
+        <v>1955211</v>
       </c>
       <c r="B4" t="n">
-        <v>78569</v>
+        <v>78568</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -964,21 +954,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -993,14 +983,14 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>SV Monte Carlo, Jmt</t>
+          <t>Söder om Bodtjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>527721.6135952856</v>
+        <v>526984.7824697205</v>
       </c>
       <c r="R4" t="n">
-        <v>6996047.266259992</v>
+        <v>6996343.169846137</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1054,12 +1044,17 @@
       <c r="AG4" t="b">
         <v>0</v>
       </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>grannaturskog</t>
+        </is>
+      </c>
       <c r="AN4" t="n">
         <v>1</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1 substratenheter # sälgbark</t>
+          <t>1 substratenheter # gammal björk</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1077,7 +1072,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1955206</v>
+        <v>1955208</v>
       </c>
       <c r="B5" t="n">
         <v>78568</v>
@@ -1126,10 +1121,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>527646.3222403944</v>
+        <v>527721.6135952856</v>
       </c>
       <c r="R5" t="n">
-        <v>6996046.623740066</v>
+        <v>6996047.266259992</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1188,7 +1183,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1 substratenheter # björkbark</t>
+          <t>1 substratenheter</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1206,7 +1201,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1955208</v>
+        <v>1955205</v>
       </c>
       <c r="B6" t="n">
         <v>78568</v>
@@ -1251,14 +1246,14 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>SV Monte Carlo, Jmt</t>
+          <t>S Monte Carlo, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>527721.6135952856</v>
+        <v>527801.0263964261</v>
       </c>
       <c r="R6" t="n">
-        <v>6996047.266259992</v>
+        <v>6995990.418098574</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1317,7 +1312,7 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1 substratenheter</t>
+          <t>1 substratenheter # aspbark</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1335,7 +1330,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1955205</v>
+        <v>1955210</v>
       </c>
       <c r="B7" t="n">
         <v>78568</v>
@@ -1380,14 +1375,14 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>S Monte Carlo, Jmt</t>
+          <t>Söder om Bodtjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>527801.0263964261</v>
+        <v>527394.2661032595</v>
       </c>
       <c r="R7" t="n">
-        <v>6995990.418098574</v>
+        <v>6996083.440633372</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1441,12 +1436,17 @@
       <c r="AG7" t="b">
         <v>0</v>
       </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>grannaturskog</t>
+        </is>
+      </c>
       <c r="AN7" t="n">
         <v>1</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1 substratenheter # aspbark</t>
+          <t>1 substratenheter # björk med brandljud</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
